--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3051.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3051.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2149866452472429</v>
+        <v>0.9043993353843689</v>
       </c>
       <c r="B1">
-        <v>0.3980494559674753</v>
+        <v>4.112283706665039</v>
       </c>
       <c r="C1">
-        <v>2.353350861124033</v>
+        <v>6.101568698883057</v>
       </c>
       <c r="D1">
-        <v>4.704245427015854</v>
+        <v>1.494413733482361</v>
       </c>
       <c r="E1">
-        <v>3.500662660231079</v>
+        <v>0.8417622447013855</v>
       </c>
     </row>
   </sheetData>
